--- a/Aassur/Docs/Infos/Compagnies.xlsx
+++ b/Aassur/Docs/Infos/Compagnies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets\App\Aassur\Aassur\Docs\Infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209437A0-E5DD-4DD7-A8D2-92355F3DE629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146E343-85ED-4611-9E62-1FFC45E40B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5219F6B-2E6B-4A21-9809-F62CF98A1B1A}"/>
   </bookViews>
@@ -38,25 +38,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
-    <t>Suisselife</t>
-  </si>
-  <si>
     <t>partenaire</t>
   </si>
   <si>
-    <t>mma</t>
-  </si>
-  <si>
-    <t>macsf</t>
-  </si>
-  <si>
     <t>non partenaire</t>
   </si>
   <si>
-    <t>telem</t>
-  </si>
-  <si>
-    <t>macif</t>
+    <t>SwissLife</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>MACIF</t>
+  </si>
+  <si>
+    <t>MACSF</t>
+  </si>
+  <si>
+    <t>TELEM</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E16:E17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,45 +422,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>